--- a/路段編碼.xlsx
+++ b/路段編碼.xlsx
@@ -9487,7 +9487,7 @@
       </c>
       <c r="D2" s="18" t="inlineStr">
         <is>
-          <t>LINESTRING(121.20097 25.07273,121.201 25.07265,121.20103 25.07258,121.20111 25.07237,121.20125 25.07203,121.20136 25.07178,121.20137 25.07176,121.20143 25.07162,121.20152 25.07145,121.20163 25.07127,121.20174 25.07114,121.20181 25.07104,121.20197 25.07089,121.20215 25.07076,121.20234 25.07063,121.20239 25.0706,121.20254 25.07052,121.20272 25.07044,121.20279 25.0704,121.2029 25.07036,121.20306 25.07028,121.20344 25.07011,121.20348 25.07008,121.20357 25.07004,121.20358 25.07003,121.2037 25.06997,121.20412 25.06974,121.20436 25.0696,121.20447 25.06954,121.20507 25.06919,121.20551 25.06892,121.20579 25.06872,121.20634 25.06827,121.20671 25.06794,121.2071 25.06755,121.20766 25.06692,121.20825 25.06623,121.20906 25.06526)</t>
+          <t>LINESTRING(121.20097 25.07273,121.20100 25.07265,121.20103 25.07258,121.20111 25.07237,121.20125 25.07203,121.20136 25.07178,121.20137 25.07176,121.20143 25.07162,121.20152 25.07145,121.20163 25.07127,121.20174 25.07114,121.20181 25.07104,121.20197 25.07089,121.20215 25.07076,121.20234 25.07063,121.20239 25.07060,121.20254 25.07052,121.20272 25.07044,121.20279 25.07040,121.20290 25.07036,121.20306 25.07028,121.20344 25.07011,121.20348 25.07008,121.20357 25.07004,121.20358 25.07003,121.20370 25.06997,121.20412 25.06974,121.20436 25.06960,121.20447 25.06954,121.20507 25.06919,121.20551 25.06892,121.20579 25.06872,121.20634 25.06827,121.20671 25.06794,121.20710 25.06755,121.20766 25.06692,121.20825 25.06623,121.20906 25.06526)</t>
         </is>
       </c>
       <c r="E2" s="18" t="n"/>
@@ -9506,7 +9506,7 @@
       </c>
       <c r="D3" s="18" t="inlineStr">
         <is>
-          <t>LINESTRING(121.73528 25.12235,121.73513 25.12219,121.73512 25.12218,121.73511 25.12216,121.7351 25.12215,121.73509 25.12214,121.73507 25.12212,121.73505 25.12209,121.73503 25.12208,121.73501 25.12206,121.73496 25.122,121.73488 25.12192,121.73479 25.12181,121.73475 25.12178,121.73473 25.12175,121.73471 25.12173,121.73419 25.12116,121.73306 25.11993,121.73306 25.11993,121.73306 25.11993,121.73271 25.11961,121.73265 25.11955,121.7323 25.11923,121.732 25.11895,121.73172 25.1187,121.73101 25.11812,121.73013 25.11737,121.72996 25.11721,121.72938 25.11657,121.72913 25.11628,121.72886 25.11593,121.72885 25.11592,121.7288 25.11585,121.7288 25.11585,121.72852 25.11542,121.72827 25.115,121.72814 25.11478,121.72811 25.11474,121.72809 25.1147,121.72808 25.11467,121.72806 25.11465,121.72794 25.11445,121.72774 25.11405,121.7276 25.11373,121.72726 25.11291)</t>
+          <t>LINESTRING(121.73528 25.12235,121.73513 25.12219,121.73512 25.12218,121.73511 25.12216,121.73510 25.12215,121.73509 25.12214,121.73507 25.12212,121.73505 25.12209,121.73503 25.12208,121.73501 25.12206,121.73496 25.12200,121.73488 25.12192,121.73479 25.12181,121.73475 25.12178,121.73473 25.12175,121.73471 25.12173,121.73419 25.12116,121.73306 25.11993,121.73306 25.11993,121.73306 25.11993,121.73271 25.11961,121.73265 25.11955,121.73230 25.11923,121.73200 25.11895,121.73172 25.11870,121.73101 25.11812,121.73013 25.11737,121.72996 25.11721,121.72938 25.11657,121.72913 25.11628,121.72886 25.11593,121.72885 25.11592,121.72880 25.11585,121.72880 25.11585,121.72852 25.11542,121.72827 25.11500,121.72814 25.11478,121.72811 25.11474,121.72809 25.11470,121.72808 25.11467,121.72806 25.11465,121.72794 25.11445,121.72774 25.11405,121.72760 25.11373,121.72726 25.11291)</t>
         </is>
       </c>
       <c r="E3" s="18" t="n"/>
